--- a/kunci_jawaban/kunci_jawaban_1.xlsx
+++ b/kunci_jawaban/kunci_jawaban_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\python\essay_scoring\kunci_jawaban\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\python\essay_scoring\ES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F37F77B-1E98-41E2-BD2A-6246035DB844}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71C22037-9996-4F22-8017-8A50AD815C21}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{E368493F-6176-4DDC-8455-EEB165729BE4}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
   <si>
     <t>no</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>telepon0217381 1111 sekarang juga untuk informasi lebih lanjut kunjungi website kami di buanawisata.com untuk informasi paket dan harga</t>
+  </si>
+  <si>
+    <t>telepon0217381 1111 sekarang jugauntuk informasi lebih lanjut kunjungi website kami di buanawisata.com untuk informasi paket dan harga</t>
   </si>
   <si>
     <t>telepon0217381 1111 untuk informasi lebih lanjut kunjungi website buanawisata.com untuj informasi paket dan harga</t>
@@ -153,7 +156,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -176,29 +179,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -298,10 +286,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{46E339CE-166D-46FF-904D-8BB072E8877F}" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
-  <autoFilter ref="A1:E27" xr:uid="{5126C4C7-C397-4F0E-8AAC-2C06F7162617}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E27">
-    <sortCondition ref="E1:E27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{46E339CE-166D-46FF-904D-8BB072E8877F}" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
+  <autoFilter ref="A1:E24" xr:uid="{5126C4C7-C397-4F0E-8AAC-2C06F7162617}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E24">
+    <sortCondition ref="D1:D24"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{2726FDFB-DC44-4477-AA0B-5BEE4BCE62D1}" name="no"/>
@@ -611,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC45CED8-AE9C-45D1-AA02-E9045BEAAEDA}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,75 +617,63 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>12</v>
-      </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2">
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>13</v>
-      </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3">
-        <v>95</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4">
         <v>20</v>
       </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5">
         <v>20</v>
@@ -706,304 +682,250 @@
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6">
+        <v>60</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>60</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <v>70</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <v>99</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6">
-        <v>20</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>95</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8">
-        <v>60</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9">
-        <v>60</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>99</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>98</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <v>94</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <v>97</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10">
-        <v>99</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <v>90</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11">
-        <v>98</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20">
+        <v>95</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12">
-        <v>94</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>96</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13">
-        <v>97</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>95</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14">
-        <v>97</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15">
-        <v>95</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>11</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16">
-        <v>99</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17">
-        <v>96</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18">
-        <v>95</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19">
-        <v>95</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20">
-        <v>100</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>25</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21">
-        <v>100</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>7</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22">
-        <v>70</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>23</v>
-      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23">
         <v>100</v>
@@ -1012,75 +934,21 @@
         <v>1</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>26</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24">
         <v>100</v>
       </c>
-      <c r="D24" s="1">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>8</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25">
-        <v>20</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>9</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26">
-        <v>20</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>10</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27">
-        <v>25</v>
-      </c>
-      <c r="D27" s="4">
-        <v>0</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
